--- a/Code/Results/Cases/Case_2_211/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_211/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.54841374033209</v>
+        <v>10.39117461731422</v>
       </c>
       <c r="C2">
-        <v>11.46778573527362</v>
+        <v>8.317883524737784</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.74140384168243</v>
+        <v>23.03951531095922</v>
       </c>
       <c r="F2">
-        <v>29.04099385137973</v>
+        <v>36.82758397468936</v>
       </c>
       <c r="G2">
-        <v>17.92329885993203</v>
+        <v>20.34419292159597</v>
       </c>
       <c r="H2">
-        <v>7.232833142706046</v>
+        <v>12.08843643360422</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.369428794681887</v>
+        <v>7.348877636070919</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.90207820637566</v>
+        <v>18.56271337980564</v>
       </c>
       <c r="N2">
-        <v>11.54488526501657</v>
+        <v>16.61247596062897</v>
       </c>
       <c r="O2">
-        <v>11.48223273273456</v>
+        <v>17.27893486685684</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.45108058105507</v>
+        <v>9.857326716910977</v>
       </c>
       <c r="C3">
-        <v>10.92263247647979</v>
+        <v>8.069778726112093</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16.19071886348938</v>
+        <v>23.00527293212909</v>
       </c>
       <c r="F3">
-        <v>27.98357198439704</v>
+        <v>36.75707984753107</v>
       </c>
       <c r="G3">
-        <v>17.24937563695648</v>
+        <v>20.3145332716776</v>
       </c>
       <c r="H3">
-        <v>7.256181218742004</v>
+        <v>12.12981670480522</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.405337910489664</v>
+        <v>7.361670389933702</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.98821390430044</v>
+        <v>18.37028534395292</v>
       </c>
       <c r="N3">
-        <v>11.64063913870363</v>
+        <v>16.65169587848784</v>
       </c>
       <c r="O3">
-        <v>11.37097669963645</v>
+        <v>17.33265481998719</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.73847934473956</v>
+        <v>9.514681102926147</v>
       </c>
       <c r="C4">
-        <v>10.57322248213256</v>
+        <v>7.912623121321638</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.8540646854067</v>
+        <v>22.98880943001238</v>
       </c>
       <c r="F4">
-        <v>27.33963719640107</v>
+        <v>36.72372745437881</v>
       </c>
       <c r="G4">
-        <v>16.84901224163743</v>
+        <v>20.30536942283265</v>
       </c>
       <c r="H4">
-        <v>7.276316223062586</v>
+        <v>12.15744190750844</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.428051184197839</v>
+        <v>7.369937536379401</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.40525053830968</v>
+        <v>18.2540061683681</v>
       </c>
       <c r="N4">
-        <v>11.7030450525469</v>
+        <v>16.67751064619308</v>
       </c>
       <c r="O4">
-        <v>11.31514916981807</v>
+        <v>17.37023428841186</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.43833656036309</v>
+        <v>9.37146109769682</v>
       </c>
       <c r="C5">
-        <v>10.42725929290402</v>
+        <v>7.847438543231799</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.71742350759256</v>
+        <v>22.98325204134785</v>
       </c>
       <c r="F5">
-        <v>27.07893774514485</v>
+        <v>36.7126440172935</v>
       </c>
       <c r="G5">
-        <v>16.68946909432934</v>
+        <v>20.30390907752288</v>
       </c>
       <c r="H5">
-        <v>7.285921744598562</v>
+        <v>12.16925648022421</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.437477241017111</v>
+        <v>7.373410441096095</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.16243094409901</v>
+        <v>18.20713869933065</v>
       </c>
       <c r="N5">
-        <v>11.72936771413469</v>
+        <v>16.68846697308955</v>
       </c>
       <c r="O5">
-        <v>11.29544809193647</v>
+        <v>17.38669979194559</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.38790976093886</v>
+        <v>9.347467591626762</v>
       </c>
       <c r="C6">
-        <v>10.40281007298176</v>
+        <v>7.836547834657918</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.69477287994383</v>
+        <v>22.98239891409746</v>
       </c>
       <c r="F6">
-        <v>27.03576325665942</v>
+        <v>36.71095530949572</v>
       </c>
       <c r="G6">
-        <v>16.66320167361742</v>
+        <v>20.30380383998577</v>
       </c>
       <c r="H6">
-        <v>7.28759963641446</v>
+        <v>12.17125191118544</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.439052796781072</v>
+        <v>7.373993402617702</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.12180126960399</v>
+        <v>18.19938896943066</v>
       </c>
       <c r="N6">
-        <v>11.7337919700124</v>
+        <v>16.69031265247306</v>
       </c>
       <c r="O6">
-        <v>11.29235807882383</v>
+        <v>17.38950330869871</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.73447097172398</v>
+        <v>9.512763905488676</v>
       </c>
       <c r="C7">
-        <v>10.57126828019184</v>
+        <v>7.911748549021838</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.85221943119229</v>
+        <v>22.98872981282454</v>
       </c>
       <c r="F7">
-        <v>27.3361138871335</v>
+        <v>36.72356781467022</v>
       </c>
       <c r="G7">
-        <v>16.84684567461646</v>
+        <v>20.30534052450735</v>
       </c>
       <c r="H7">
-        <v>7.276440172364806</v>
+        <v>12.15759898810872</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.428177614209492</v>
+        <v>7.369983951812145</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.40199672716587</v>
+        <v>18.25337194241201</v>
       </c>
       <c r="N7">
-        <v>11.70339645953005</v>
+        <v>16.67765663837242</v>
       </c>
       <c r="O7">
-        <v>11.31487125467148</v>
+        <v>17.37045169068202</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.17811677814073</v>
+        <v>10.21026898088613</v>
       </c>
       <c r="C8">
-        <v>11.28292803378041</v>
+        <v>8.233376698041285</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.55132655220201</v>
+        <v>23.02676482170883</v>
       </c>
       <c r="F8">
-        <v>28.67550366248434</v>
+        <v>36.80121785152778</v>
       </c>
       <c r="G8">
-        <v>17.68828250149976</v>
+        <v>20.33208886564789</v>
       </c>
       <c r="H8">
-        <v>7.239644831305717</v>
+        <v>12.10224377636068</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.381674107099536</v>
+        <v>7.353203169635904</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.59163940923529</v>
+        <v>18.49600367629706</v>
       </c>
       <c r="N8">
-        <v>11.5771409262548</v>
+        <v>16.62563958816846</v>
       </c>
       <c r="O8">
-        <v>11.44122940358874</v>
+        <v>17.29650147095884</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.70109936914479</v>
+        <v>11.45489440535548</v>
       </c>
       <c r="C9">
-        <v>12.55787093533526</v>
+        <v>8.823117961658031</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17.92674269857913</v>
+        <v>23.13730702536034</v>
       </c>
       <c r="F9">
-        <v>31.3294798901894</v>
+        <v>37.03182542556395</v>
       </c>
       <c r="G9">
-        <v>19.43486147443512</v>
+        <v>20.45622133966541</v>
       </c>
       <c r="H9">
-        <v>7.216133524741133</v>
+        <v>12.01131158722143</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.295612854479295</v>
+        <v>7.323554630784283</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.74308144973289</v>
+        <v>18.98458590326235</v>
       </c>
       <c r="N9">
-        <v>11.35904084768606</v>
+        <v>16.5373596749276</v>
       </c>
       <c r="O9">
-        <v>11.79157861937299</v>
+        <v>17.18811312181383</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.36796577019572</v>
+        <v>12.28861303022919</v>
       </c>
       <c r="C10">
-        <v>13.41676030986489</v>
+        <v>9.228161830749499</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>18.93152140946248</v>
+        <v>23.24007291847895</v>
       </c>
       <c r="F10">
-        <v>33.27870739878757</v>
+        <v>37.24815758319978</v>
       </c>
       <c r="G10">
-        <v>20.76440171469248</v>
+        <v>20.59075362299903</v>
       </c>
       <c r="H10">
-        <v>7.232157895441921</v>
+        <v>11.95527716652763</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.235299905593505</v>
+        <v>7.303739675594058</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.3883183502396</v>
+        <v>19.34852984189202</v>
       </c>
       <c r="N10">
-        <v>11.21803029208203</v>
+        <v>16.48082756182047</v>
       </c>
       <c r="O10">
-        <v>12.11554440722373</v>
+        <v>17.13102398777377</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.08610109921641</v>
+        <v>12.6495209573104</v>
       </c>
       <c r="C11">
-        <v>13.78998801373266</v>
+        <v>9.405714891441564</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19.38594678285166</v>
+        <v>23.29140698972332</v>
       </c>
       <c r="F11">
-        <v>34.16242517906201</v>
+        <v>37.35652370362233</v>
       </c>
       <c r="G11">
-        <v>21.37705292605686</v>
+        <v>20.66121821832758</v>
       </c>
       <c r="H11">
-        <v>7.247466781181902</v>
+        <v>11.93213179037835</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.208445588228267</v>
+        <v>7.295148661649129</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.11778190812696</v>
+        <v>19.5145802621172</v>
       </c>
       <c r="N11">
-        <v>11.15836733656999</v>
+        <v>16.45690954520266</v>
       </c>
       <c r="O11">
-        <v>12.27803332053875</v>
+        <v>17.10998845312477</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.35230852526691</v>
+        <v>12.78349465598071</v>
       </c>
       <c r="C12">
-        <v>13.92877007573536</v>
+        <v>9.471944008987828</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19.55755047566907</v>
+        <v>23.31149566651563</v>
       </c>
       <c r="F12">
-        <v>34.49644822894493</v>
+        <v>37.39896707578099</v>
       </c>
       <c r="G12">
-        <v>21.61002140614907</v>
+        <v>20.68921637034959</v>
       </c>
       <c r="H12">
-        <v>7.254481842931268</v>
+        <v>11.92370501057988</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.198356008788517</v>
+        <v>7.29195598469541</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.38838444356057</v>
+        <v>19.57747995292796</v>
       </c>
       <c r="N12">
-        <v>11.13644834058452</v>
+        <v>16.44811046099544</v>
       </c>
       <c r="O12">
-        <v>12.34177759146304</v>
+        <v>17.10273529938218</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.29523041984054</v>
+        <v>12.75476161213737</v>
       </c>
       <c r="C13">
-        <v>13.89899481634209</v>
+        <v>9.457725767999472</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.52061509107858</v>
+        <v>23.3071404849642</v>
       </c>
       <c r="F13">
-        <v>34.42454062632677</v>
+        <v>37.389763947335</v>
       </c>
       <c r="G13">
-        <v>21.55980647079121</v>
+        <v>20.68312830681003</v>
       </c>
       <c r="H13">
-        <v>7.252915827979876</v>
+        <v>11.9255048309544</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.200525510575086</v>
+        <v>7.292640895784356</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.33035448282592</v>
+        <v>19.56393328669864</v>
       </c>
       <c r="N13">
-        <v>11.14113851368559</v>
+        <v>16.44999402782719</v>
       </c>
       <c r="O13">
-        <v>12.32795013636542</v>
+        <v>17.10426566133474</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.10811685338346</v>
+        <v>12.66059732786187</v>
       </c>
       <c r="C14">
-        <v>13.80145700090988</v>
+        <v>9.411183996350911</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.4000747657315</v>
+        <v>23.29304673773034</v>
       </c>
       <c r="F14">
-        <v>34.1899188585932</v>
+        <v>37.35998748400603</v>
       </c>
       <c r="G14">
-        <v>21.39620071663922</v>
+        <v>20.66349540552524</v>
       </c>
       <c r="H14">
-        <v>7.248019135508546</v>
+        <v>11.93143173890131</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.207613942590625</v>
+        <v>7.294884786093046</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.14015692129377</v>
+        <v>19.51975494367354</v>
       </c>
       <c r="N14">
-        <v>11.15655036074351</v>
+        <v>16.45618046838733</v>
       </c>
       <c r="O14">
-        <v>12.28323304320649</v>
+        <v>17.10937743547103</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.99275870805241</v>
+        <v>12.60256666419202</v>
       </c>
       <c r="C15">
-        <v>13.74137911949403</v>
+        <v>9.382543579025764</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19.32617567236549</v>
+        <v>23.28449820027853</v>
       </c>
       <c r="F15">
-        <v>34.04612034686399</v>
+        <v>37.34193107917317</v>
       </c>
       <c r="G15">
-        <v>21.29610976012955</v>
+        <v>20.65164032968962</v>
       </c>
       <c r="H15">
-        <v>7.245180297198209</v>
+        <v>11.9351061616329</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.211966045858673</v>
+        <v>7.296267111878597</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.02292459133366</v>
+        <v>19.49269554953616</v>
       </c>
       <c r="N15">
-        <v>11.16607926176016</v>
+        <v>16.4600034458215</v>
       </c>
       <c r="O15">
-        <v>12.25613180866625</v>
+        <v>17.11260142181087</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.32022934433287</v>
+        <v>12.26465255521536</v>
       </c>
       <c r="C16">
-        <v>13.39201376621497</v>
+        <v>9.21641969520841</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>18.90176160596416</v>
+        <v>23.23680956718006</v>
       </c>
       <c r="F16">
-        <v>33.22087679550044</v>
+        <v>37.24127392542225</v>
       </c>
       <c r="G16">
-        <v>20.72450719675724</v>
+        <v>20.58633360331963</v>
       </c>
       <c r="H16">
-        <v>7.231324332079556</v>
+        <v>11.9568370154758</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.237066265568138</v>
+        <v>7.304309606270946</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.33985424813498</v>
+        <v>19.33768359197113</v>
       </c>
       <c r="N16">
-        <v>11.22202207559579</v>
+        <v>16.48242681191239</v>
       </c>
       <c r="O16">
-        <v>12.10523310551006</v>
+        <v>17.13249826603492</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.8973996484476</v>
+        <v>12.05260942362938</v>
       </c>
       <c r="C17">
-        <v>13.17318145670676</v>
+        <v>9.112759457704469</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>18.64064325239514</v>
+        <v>23.2087218516667</v>
       </c>
       <c r="F17">
-        <v>32.71370009225592</v>
+        <v>37.18205746763905</v>
       </c>
       <c r="G17">
-        <v>20.37573442294967</v>
+        <v>20.54863156233036</v>
       </c>
       <c r="H17">
-        <v>7.224924204904304</v>
+        <v>11.9707692724787</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.252610697934232</v>
+        <v>7.309351547299116</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.91070425066084</v>
+        <v>19.24267825364165</v>
       </c>
       <c r="N17">
-        <v>11.25750957670459</v>
+        <v>16.49664315351423</v>
       </c>
       <c r="O17">
-        <v>12.01656381495754</v>
+        <v>17.14597040639848</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.65041937464406</v>
+        <v>11.92892268153136</v>
       </c>
       <c r="C18">
-        <v>13.04567057544009</v>
+        <v>9.052508095272877</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>18.49020960302983</v>
+        <v>23.19299877463904</v>
       </c>
       <c r="F18">
-        <v>32.42171226556701</v>
+        <v>37.14893638673806</v>
       </c>
       <c r="G18">
-        <v>20.17587475755898</v>
+        <v>20.5278196834686</v>
       </c>
       <c r="H18">
-        <v>7.22199396803485</v>
+        <v>11.97900341809392</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.261606521484604</v>
+        <v>7.312291359987785</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.66012965823397</v>
+        <v>19.18808285403203</v>
       </c>
       <c r="N18">
-        <v>11.27834114288805</v>
+        <v>16.50498935095391</v>
       </c>
       <c r="O18">
-        <v>11.96698448383937</v>
+        <v>17.15418353522391</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.56614591209543</v>
+        <v>11.88675003765231</v>
       </c>
       <c r="C19">
-        <v>13.00221646179021</v>
+        <v>9.03200140419343</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>18.43923647128996</v>
+        <v>23.18774973228472</v>
       </c>
       <c r="F19">
-        <v>32.32280979311534</v>
+        <v>37.13788406958968</v>
       </c>
       <c r="G19">
-        <v>20.10833893350855</v>
+        <v>20.52092362007176</v>
       </c>
       <c r="H19">
-        <v>7.221128840405498</v>
+        <v>11.98182923968012</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.264661935485909</v>
+        <v>7.313293577408437</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.57464500927642</v>
+        <v>19.16960778290789</v>
       </c>
       <c r="N19">
-        <v>11.28546565232653</v>
+        <v>16.5078443288681</v>
       </c>
       <c r="O19">
-        <v>11.95044047458128</v>
+        <v>17.15704401008216</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.94280154612298</v>
+        <v>12.07536075514237</v>
       </c>
       <c r="C20">
-        <v>13.19664701058882</v>
+        <v>9.123859661069769</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>18.66846588944007</v>
+        <v>23.21166717061212</v>
       </c>
       <c r="F20">
-        <v>32.76771971132133</v>
+        <v>37.18826418012452</v>
       </c>
       <c r="G20">
-        <v>20.4127859782039</v>
+        <v>20.55255473922176</v>
       </c>
       <c r="H20">
-        <v>7.22552731958966</v>
+        <v>11.96926331549408</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.250950295738354</v>
+        <v>7.308810704577634</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.9567744230122</v>
+        <v>19.25278701452862</v>
       </c>
       <c r="N20">
-        <v>11.25368818906998</v>
+        <v>16.49511227797047</v>
       </c>
       <c r="O20">
-        <v>12.02585544212994</v>
+        <v>17.1444881972964</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.16323197128447</v>
+        <v>12.68832916704766</v>
       </c>
       <c r="C21">
-        <v>13.83017570186013</v>
+        <v>9.424882070399134</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.43549399980334</v>
+        <v>23.2971688656507</v>
       </c>
       <c r="F21">
-        <v>34.25885114255936</v>
+        <v>37.36869555847857</v>
       </c>
       <c r="G21">
-        <v>21.44423044377758</v>
+        <v>20.66922653836478</v>
       </c>
       <c r="H21">
-        <v>7.249423843862211</v>
+        <v>11.9296816873669</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.205529773333129</v>
+        <v>7.294224059772408</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.19617472095942</v>
+        <v>19.53273105038671</v>
       </c>
       <c r="N21">
-        <v>11.15200498666101</v>
+        <v>16.45435635867893</v>
       </c>
       <c r="O21">
-        <v>12.29630719223253</v>
+        <v>17.10785662315694</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.92744732107954</v>
+        <v>13.08214000320447</v>
       </c>
       <c r="C22">
-        <v>14.22934310160302</v>
+        <v>9.615735267495936</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.93397876518727</v>
+        <v>23.35683029086144</v>
       </c>
       <c r="F22">
-        <v>35.2297096028729</v>
+        <v>37.49480891196389</v>
       </c>
       <c r="G22">
-        <v>22.12394632858277</v>
+        <v>20.75313129937885</v>
       </c>
       <c r="H22">
-        <v>7.272170409925681</v>
+        <v>11.90578248005611</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.176306498765265</v>
+        <v>7.285043677609996</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.97341893042882</v>
+        <v>19.71578433685524</v>
       </c>
       <c r="N22">
-        <v>11.08949365796894</v>
+        <v>16.42922447877902</v>
       </c>
       <c r="O22">
-        <v>12.48597685752565</v>
+        <v>17.08807018885352</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.52261460491665</v>
+        <v>12.86924907847837</v>
       </c>
       <c r="C23">
-        <v>14.01767103952281</v>
+        <v>9.514424378220607</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.6682118417264</v>
+        <v>23.32464533685711</v>
       </c>
       <c r="F23">
-        <v>34.71193314850283</v>
+        <v>37.42675893198719</v>
       </c>
       <c r="G23">
-        <v>21.76069992950953</v>
+        <v>20.70765610111025</v>
       </c>
       <c r="H23">
-        <v>7.259356526785998</v>
+        <v>11.91835749443359</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.191862712987095</v>
+        <v>7.289911221443717</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.56156225277161</v>
+        <v>19.618093285571</v>
       </c>
       <c r="N23">
-        <v>11.12248581868857</v>
+        <v>16.4425003400836</v>
       </c>
       <c r="O23">
-        <v>12.38355376826842</v>
+        <v>17.09824955578968</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.92228746684954</v>
+        <v>12.06508041919202</v>
       </c>
       <c r="C24">
-        <v>13.18604352985722</v>
+        <v>9.118843298282018</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>18.65588824336479</v>
+        <v>23.21033426755593</v>
       </c>
       <c r="F24">
-        <v>32.74329868860151</v>
+        <v>37.18545524772323</v>
       </c>
       <c r="G24">
-        <v>20.39603291939316</v>
+        <v>20.55077837982305</v>
       </c>
       <c r="H24">
-        <v>7.225252322504283</v>
+        <v>11.96994345998955</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.251700779105672</v>
+        <v>7.309055091422244</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.93595809733552</v>
+        <v>19.24821676373601</v>
       </c>
       <c r="N24">
-        <v>11.25541450334452</v>
+        <v>16.49580384777003</v>
       </c>
       <c r="O24">
-        <v>12.02165034665902</v>
+        <v>17.14515684703005</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.05147131313722</v>
+        <v>11.13202719995344</v>
       </c>
       <c r="C25">
-        <v>12.22637984490165</v>
+        <v>8.668322021159954</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.55511618264394</v>
+        <v>23.10358776896395</v>
       </c>
       <c r="F25">
-        <v>30.61050456858109</v>
+        <v>36.96113127684684</v>
       </c>
       <c r="G25">
-        <v>18.95338582444927</v>
+        <v>20.41499118756521</v>
       </c>
       <c r="H25">
-        <v>7.216912063429151</v>
+        <v>12.03402151825649</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.318366553065546</v>
+        <v>7.331228435469709</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.18145307276316</v>
+        <v>18.85133231678472</v>
       </c>
       <c r="N25">
-        <v>11.41476406369561</v>
+        <v>16.55977655009806</v>
       </c>
       <c r="O25">
-        <v>11.68536287036531</v>
+        <v>17.21349061619719</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_211/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_211/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.39117461731422</v>
+        <v>17.54841374033217</v>
       </c>
       <c r="C2">
-        <v>8.317883524737784</v>
+        <v>11.46778573527356</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.03951531095922</v>
+        <v>16.74140384168238</v>
       </c>
       <c r="F2">
-        <v>36.82758397468936</v>
+        <v>29.04099385137962</v>
       </c>
       <c r="G2">
-        <v>20.34419292159597</v>
+        <v>17.92329885993194</v>
       </c>
       <c r="H2">
-        <v>12.08843643360422</v>
+        <v>7.232833142706043</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.348877636070919</v>
+        <v>4.36942879468192</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.56271337980564</v>
+        <v>16.90207820637564</v>
       </c>
       <c r="N2">
-        <v>16.61247596062897</v>
+        <v>11.54488526501654</v>
       </c>
       <c r="O2">
-        <v>17.27893486685684</v>
+        <v>11.48223273273447</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.857326716910977</v>
+        <v>16.45108058105498</v>
       </c>
       <c r="C3">
-        <v>8.069778726112093</v>
+        <v>10.92263247647981</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>23.00527293212909</v>
+        <v>16.1907188634893</v>
       </c>
       <c r="F3">
-        <v>36.75707984753107</v>
+        <v>27.98357198439707</v>
       </c>
       <c r="G3">
-        <v>20.3145332716776</v>
+        <v>17.24937563695665</v>
       </c>
       <c r="H3">
-        <v>12.12981670480522</v>
+        <v>7.256181218742058</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.361670389933702</v>
+        <v>4.405337910489666</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.37028534395292</v>
+        <v>15.98821390430044</v>
       </c>
       <c r="N3">
-        <v>16.65169587848784</v>
+        <v>11.64063913870363</v>
       </c>
       <c r="O3">
-        <v>17.33265481998719</v>
+        <v>11.37097669963652</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.514681102926147</v>
+        <v>15.73847934473953</v>
       </c>
       <c r="C4">
-        <v>7.912623121321638</v>
+        <v>10.57322248213258</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.98880943001238</v>
+        <v>15.85406468540683</v>
       </c>
       <c r="F4">
-        <v>36.72372745437881</v>
+        <v>27.33963719640117</v>
       </c>
       <c r="G4">
-        <v>20.30536942283265</v>
+        <v>16.84901224163743</v>
       </c>
       <c r="H4">
-        <v>12.15744190750844</v>
+        <v>7.276316223062586</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.369937536379401</v>
+        <v>4.42805118419784</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.2540061683681</v>
+        <v>15.40525053830973</v>
       </c>
       <c r="N4">
-        <v>16.67751064619308</v>
+        <v>11.7030450525469</v>
       </c>
       <c r="O4">
-        <v>17.37023428841186</v>
+        <v>11.31514916981806</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.37146109769682</v>
+        <v>15.43833656036305</v>
       </c>
       <c r="C5">
-        <v>7.847438543231799</v>
+        <v>10.42725929290394</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.98325204134785</v>
+        <v>15.71742350759266</v>
       </c>
       <c r="F5">
-        <v>36.7126440172935</v>
+        <v>27.07893774514502</v>
       </c>
       <c r="G5">
-        <v>20.30390907752288</v>
+        <v>16.68946909432939</v>
       </c>
       <c r="H5">
-        <v>12.16925648022421</v>
+        <v>7.285921744598621</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.373410441096095</v>
+        <v>4.437477241017111</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.20713869933065</v>
+        <v>15.16243094409907</v>
       </c>
       <c r="N5">
-        <v>16.68846697308955</v>
+        <v>11.72936771413469</v>
       </c>
       <c r="O5">
-        <v>17.38669979194559</v>
+        <v>11.29544809193654</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.347467591626762</v>
+        <v>15.38790976093882</v>
       </c>
       <c r="C6">
-        <v>7.836547834657918</v>
+        <v>10.40281007298177</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.98239891409746</v>
+        <v>15.69477287994376</v>
       </c>
       <c r="F6">
-        <v>36.71095530949572</v>
+        <v>27.03576325665933</v>
       </c>
       <c r="G6">
-        <v>20.30380383998577</v>
+        <v>16.66320167361745</v>
       </c>
       <c r="H6">
-        <v>12.17125191118544</v>
+        <v>7.28759963641446</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.373993402617702</v>
+        <v>4.43905279678114</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.19938896943066</v>
+        <v>15.12180126960398</v>
       </c>
       <c r="N6">
-        <v>16.69031265247306</v>
+        <v>11.73379197001237</v>
       </c>
       <c r="O6">
-        <v>17.38950330869871</v>
+        <v>11.29235807882384</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.512763905488676</v>
+        <v>15.73447097172391</v>
       </c>
       <c r="C7">
-        <v>7.911748549021838</v>
+        <v>10.57126828019175</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.98872981282454</v>
+        <v>15.85221943119221</v>
       </c>
       <c r="F7">
-        <v>36.72356781467022</v>
+        <v>27.33611388713359</v>
       </c>
       <c r="G7">
-        <v>20.30534052450735</v>
+        <v>16.8468456746167</v>
       </c>
       <c r="H7">
-        <v>12.15759898810872</v>
+        <v>7.276440172364916</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.369983951812145</v>
+        <v>4.428177614209526</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.25337194241201</v>
+        <v>15.40199672716589</v>
       </c>
       <c r="N7">
-        <v>16.67765663837242</v>
+        <v>11.70339645953008</v>
       </c>
       <c r="O7">
-        <v>17.37045169068202</v>
+        <v>11.31487125467164</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.21026898088613</v>
+        <v>17.17811677814077</v>
       </c>
       <c r="C8">
-        <v>8.233376698041285</v>
+        <v>11.28292803378032</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>23.02676482170883</v>
+        <v>16.55132655220196</v>
       </c>
       <c r="F8">
-        <v>36.80121785152778</v>
+        <v>28.67550366248434</v>
       </c>
       <c r="G8">
-        <v>20.33208886564789</v>
+        <v>17.68828250149986</v>
       </c>
       <c r="H8">
-        <v>12.10224377636068</v>
+        <v>7.239644831305728</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.353203169635904</v>
+        <v>4.381674107099468</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.49600367629706</v>
+        <v>16.59163940923527</v>
       </c>
       <c r="N8">
-        <v>16.62563958816846</v>
+        <v>11.57714092625484</v>
       </c>
       <c r="O8">
-        <v>17.29650147095884</v>
+        <v>11.44122940358878</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.45489440535548</v>
+        <v>19.70109936914476</v>
       </c>
       <c r="C9">
-        <v>8.823117961658031</v>
+        <v>12.55787093533543</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>23.13730702536034</v>
+        <v>17.92674269857915</v>
       </c>
       <c r="F9">
-        <v>37.03182542556395</v>
+        <v>31.32947989018943</v>
       </c>
       <c r="G9">
-        <v>20.45622133966541</v>
+        <v>19.43486147443512</v>
       </c>
       <c r="H9">
-        <v>12.01131158722143</v>
+        <v>7.216133524741129</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.323554630784283</v>
+        <v>4.295612854479193</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.98458590326235</v>
+        <v>18.7430814497329</v>
       </c>
       <c r="N9">
-        <v>16.5373596749276</v>
+        <v>11.35904084768603</v>
       </c>
       <c r="O9">
-        <v>17.18811312181383</v>
+        <v>11.79157861937296</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.28861303022919</v>
+        <v>21.3679657701957</v>
       </c>
       <c r="C10">
-        <v>9.228161830749499</v>
+        <v>13.41676030986488</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>23.24007291847895</v>
+        <v>18.93152140946248</v>
       </c>
       <c r="F10">
-        <v>37.24815758319978</v>
+        <v>33.2787073987876</v>
       </c>
       <c r="G10">
-        <v>20.59075362299903</v>
+        <v>20.76440171469249</v>
       </c>
       <c r="H10">
-        <v>11.95527716652763</v>
+        <v>7.232157895441932</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.303739675594058</v>
+        <v>4.23529990559347</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.34852984189202</v>
+        <v>20.38831835023956</v>
       </c>
       <c r="N10">
-        <v>16.48082756182047</v>
+        <v>11.21803029208199</v>
       </c>
       <c r="O10">
-        <v>17.13102398777377</v>
+        <v>12.11554440722374</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.6495209573104</v>
+        <v>22.08610109921641</v>
       </c>
       <c r="C11">
-        <v>9.405714891441564</v>
+        <v>13.78998801373275</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23.29140698972332</v>
+        <v>19.38594678285163</v>
       </c>
       <c r="F11">
-        <v>37.35652370362233</v>
+        <v>34.16242517906201</v>
       </c>
       <c r="G11">
-        <v>20.66121821832758</v>
+        <v>21.3770529260569</v>
       </c>
       <c r="H11">
-        <v>11.93213179037835</v>
+        <v>7.247466781181819</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.295148661649129</v>
+        <v>4.208445588228267</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.5145802621172</v>
+        <v>21.11778190812696</v>
       </c>
       <c r="N11">
-        <v>16.45690954520266</v>
+        <v>11.15836733656995</v>
       </c>
       <c r="O11">
-        <v>17.10998845312477</v>
+        <v>12.27803332053875</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.78349465598071</v>
+        <v>22.35230852526686</v>
       </c>
       <c r="C12">
-        <v>9.471944008987828</v>
+        <v>13.92877007573529</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>23.31149566651563</v>
+        <v>19.55755047566905</v>
       </c>
       <c r="F12">
-        <v>37.39896707578099</v>
+        <v>34.49644822894496</v>
       </c>
       <c r="G12">
-        <v>20.68921637034959</v>
+        <v>21.61002140614907</v>
       </c>
       <c r="H12">
-        <v>11.92370501057988</v>
+        <v>7.25448184293132</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.29195598469541</v>
+        <v>4.198356008788551</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.57747995292796</v>
+        <v>21.38838444356055</v>
       </c>
       <c r="N12">
-        <v>16.44811046099544</v>
+        <v>11.13644834058451</v>
       </c>
       <c r="O12">
-        <v>17.10273529938218</v>
+        <v>12.34177759146309</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.75476161213737</v>
+        <v>22.29523041984056</v>
       </c>
       <c r="C13">
-        <v>9.457725767999472</v>
+        <v>13.89899481634201</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>23.3071404849642</v>
+        <v>19.52061509107855</v>
       </c>
       <c r="F13">
-        <v>37.389763947335</v>
+        <v>34.42454062632674</v>
       </c>
       <c r="G13">
-        <v>20.68312830681003</v>
+        <v>21.55980647079117</v>
       </c>
       <c r="H13">
-        <v>11.9255048309544</v>
+        <v>7.252915827979869</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.292640895784356</v>
+        <v>4.200525510575053</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.56393328669864</v>
+        <v>21.33035448282592</v>
       </c>
       <c r="N13">
-        <v>16.44999402782719</v>
+        <v>11.1411385136856</v>
       </c>
       <c r="O13">
-        <v>17.10426566133474</v>
+        <v>12.3279501363654</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.66059732786187</v>
+        <v>22.1081168533835</v>
       </c>
       <c r="C14">
-        <v>9.411183996350911</v>
+        <v>13.80145700090978</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>23.29304673773034</v>
+        <v>19.40007476573147</v>
       </c>
       <c r="F14">
-        <v>37.35998748400603</v>
+        <v>34.18991885859322</v>
       </c>
       <c r="G14">
-        <v>20.66349540552524</v>
+        <v>21.39620071663924</v>
       </c>
       <c r="H14">
-        <v>11.93143173890131</v>
+        <v>7.248019135508558</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.294884786093046</v>
+        <v>4.20761394259056</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.51975494367354</v>
+        <v>21.1401569212938</v>
       </c>
       <c r="N14">
-        <v>16.45618046838733</v>
+        <v>11.15655036074354</v>
       </c>
       <c r="O14">
-        <v>17.10937743547103</v>
+        <v>12.28323304320652</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.60256666419202</v>
+        <v>21.99275870805239</v>
       </c>
       <c r="C15">
-        <v>9.382543579025764</v>
+        <v>13.74137911949395</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>23.28449820027853</v>
+        <v>19.32617567236553</v>
       </c>
       <c r="F15">
-        <v>37.34193107917317</v>
+        <v>34.04612034686399</v>
       </c>
       <c r="G15">
-        <v>20.65164032968962</v>
+        <v>21.29610976012954</v>
       </c>
       <c r="H15">
-        <v>11.9351061616329</v>
+        <v>7.245180297198164</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.296267111878597</v>
+        <v>4.21196604585864</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.49269554953616</v>
+        <v>21.02292459133366</v>
       </c>
       <c r="N15">
-        <v>16.4600034458215</v>
+        <v>11.1660792617601</v>
       </c>
       <c r="O15">
-        <v>17.11260142181087</v>
+        <v>12.25613180866621</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.26465255521536</v>
+        <v>21.32022934433289</v>
       </c>
       <c r="C16">
-        <v>9.21641969520841</v>
+        <v>13.39201376621482</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>23.23680956718006</v>
+        <v>18.90176160596422</v>
       </c>
       <c r="F16">
-        <v>37.24127392542225</v>
+        <v>33.22087679550049</v>
       </c>
       <c r="G16">
-        <v>20.58633360331963</v>
+        <v>20.72450719675725</v>
       </c>
       <c r="H16">
-        <v>11.9568370154758</v>
+        <v>7.231324332079543</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.304309606270946</v>
+        <v>4.237066265568069</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.33768359197113</v>
+        <v>20.33985424813495</v>
       </c>
       <c r="N16">
-        <v>16.48242681191239</v>
+        <v>11.22202207559576</v>
       </c>
       <c r="O16">
-        <v>17.13249826603492</v>
+        <v>12.10523310551004</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.05260942362938</v>
+        <v>20.89739964844758</v>
       </c>
       <c r="C17">
-        <v>9.112759457704469</v>
+        <v>13.17318145670676</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>23.2087218516667</v>
+        <v>18.64064325239518</v>
       </c>
       <c r="F17">
-        <v>37.18205746763905</v>
+        <v>32.71370009225596</v>
       </c>
       <c r="G17">
-        <v>20.54863156233036</v>
+        <v>20.37573442294967</v>
       </c>
       <c r="H17">
-        <v>11.9707692724787</v>
+        <v>7.224924204904304</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.309351547299116</v>
+        <v>4.252610697934233</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.24267825364165</v>
+        <v>19.91070425066082</v>
       </c>
       <c r="N17">
-        <v>16.49664315351423</v>
+        <v>11.25750957670458</v>
       </c>
       <c r="O17">
-        <v>17.14597040639848</v>
+        <v>12.01656381495756</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.92892268153136</v>
+        <v>20.65041937464406</v>
       </c>
       <c r="C18">
-        <v>9.052508095272877</v>
+        <v>13.04567057544007</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>23.19299877463904</v>
+        <v>18.49020960302985</v>
       </c>
       <c r="F18">
-        <v>37.14893638673806</v>
+        <v>32.42171226556704</v>
       </c>
       <c r="G18">
-        <v>20.5278196834686</v>
+        <v>20.17587475755899</v>
       </c>
       <c r="H18">
-        <v>11.97900341809392</v>
+        <v>7.22199396803485</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.312291359987785</v>
+        <v>4.261606521484604</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.18808285403203</v>
+        <v>19.66012965823394</v>
       </c>
       <c r="N18">
-        <v>16.50498935095391</v>
+        <v>11.27834114288806</v>
       </c>
       <c r="O18">
-        <v>17.15418353522391</v>
+        <v>11.9669844838394</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.88675003765231</v>
+        <v>20.56614591209539</v>
       </c>
       <c r="C19">
-        <v>9.03200140419343</v>
+        <v>13.00221646179022</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>23.18774973228472</v>
+        <v>18.43923647128992</v>
       </c>
       <c r="F19">
-        <v>37.13788406958968</v>
+        <v>32.32280979311529</v>
       </c>
       <c r="G19">
-        <v>20.52092362007176</v>
+        <v>20.10833893350854</v>
       </c>
       <c r="H19">
-        <v>11.98182923968012</v>
+        <v>7.221128840405504</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.313293577408437</v>
+        <v>4.264661935485874</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.16960778290789</v>
+        <v>19.57464500927642</v>
       </c>
       <c r="N19">
-        <v>16.5078443288681</v>
+        <v>11.28546565232653</v>
       </c>
       <c r="O19">
-        <v>17.15704401008216</v>
+        <v>11.95044047458131</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.07536075514237</v>
+        <v>20.94280154612301</v>
       </c>
       <c r="C20">
-        <v>9.123859661069769</v>
+        <v>13.19664701058882</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>23.21166717061212</v>
+        <v>18.66846588944011</v>
       </c>
       <c r="F20">
-        <v>37.18826418012452</v>
+        <v>32.76771971132136</v>
       </c>
       <c r="G20">
-        <v>20.55255473922176</v>
+        <v>20.41278597820385</v>
       </c>
       <c r="H20">
-        <v>11.96926331549408</v>
+        <v>7.225527319589702</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.308810704577634</v>
+        <v>4.250950295738354</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.25278701452862</v>
+        <v>19.95677442301218</v>
       </c>
       <c r="N20">
-        <v>16.49511227797047</v>
+        <v>11.25368818907001</v>
       </c>
       <c r="O20">
-        <v>17.1444881972964</v>
+        <v>12.02585544212994</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.68832916704766</v>
+        <v>22.16323197128446</v>
       </c>
       <c r="C21">
-        <v>9.424882070399134</v>
+        <v>13.83017570186004</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>23.2971688656507</v>
+        <v>19.4354939998033</v>
       </c>
       <c r="F21">
-        <v>37.36869555847857</v>
+        <v>34.25885114255935</v>
       </c>
       <c r="G21">
-        <v>20.66922653836478</v>
+        <v>21.44423044377759</v>
       </c>
       <c r="H21">
-        <v>11.9296816873669</v>
+        <v>7.249423843862211</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.294224059772408</v>
+        <v>4.205529773333063</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.53273105038671</v>
+        <v>21.19617472095945</v>
       </c>
       <c r="N21">
-        <v>16.45435635867893</v>
+        <v>11.15200498666099</v>
       </c>
       <c r="O21">
-        <v>17.10785662315694</v>
+        <v>12.29630719223253</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.08214000320447</v>
+        <v>22.92744732107956</v>
       </c>
       <c r="C22">
-        <v>9.615735267495936</v>
+        <v>14.22934310160296</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.35683029086144</v>
+        <v>19.93397876518731</v>
       </c>
       <c r="F22">
-        <v>37.49480891196389</v>
+        <v>35.22970960287288</v>
       </c>
       <c r="G22">
-        <v>20.75313129937885</v>
+        <v>22.12394632858275</v>
       </c>
       <c r="H22">
-        <v>11.90578248005611</v>
+        <v>7.272170409925637</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.285043677609996</v>
+        <v>4.176306498765332</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.71578433685524</v>
+        <v>21.9734189304288</v>
       </c>
       <c r="N22">
-        <v>16.42922447877902</v>
+        <v>11.08949365796891</v>
       </c>
       <c r="O22">
-        <v>17.08807018885352</v>
+        <v>12.48597685752562</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.86924907847837</v>
+        <v>22.52261460491668</v>
       </c>
       <c r="C23">
-        <v>9.514424378220607</v>
+        <v>14.01767103952279</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>23.32464533685711</v>
+        <v>19.66821184172638</v>
       </c>
       <c r="F23">
-        <v>37.42675893198719</v>
+        <v>34.71193314850286</v>
       </c>
       <c r="G23">
-        <v>20.70765610111025</v>
+        <v>21.76069992950956</v>
       </c>
       <c r="H23">
-        <v>11.91835749443359</v>
+        <v>7.259356526786004</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.289911221443717</v>
+        <v>4.191862712987096</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.618093285571</v>
+        <v>21.56156225277162</v>
       </c>
       <c r="N23">
-        <v>16.4425003400836</v>
+        <v>11.12248581868866</v>
       </c>
       <c r="O23">
-        <v>17.09824955578968</v>
+        <v>12.38355376826849</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.06508041919202</v>
+        <v>20.92228746684951</v>
       </c>
       <c r="C24">
-        <v>9.118843298282018</v>
+        <v>13.18604352985732</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>23.21033426755593</v>
+        <v>18.65588824336483</v>
       </c>
       <c r="F24">
-        <v>37.18545524772323</v>
+        <v>32.74329868860146</v>
       </c>
       <c r="G24">
-        <v>20.55077837982305</v>
+        <v>20.39603291939309</v>
       </c>
       <c r="H24">
-        <v>11.96994345998955</v>
+        <v>7.225252322504129</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.309055091422244</v>
+        <v>4.251700779105672</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.24821676373601</v>
+        <v>19.93595809733555</v>
       </c>
       <c r="N24">
-        <v>16.49580384777003</v>
+        <v>11.25541450334446</v>
       </c>
       <c r="O24">
-        <v>17.14515684703005</v>
+        <v>12.02165034665894</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.13202719995344</v>
+        <v>19.0514713131371</v>
       </c>
       <c r="C25">
-        <v>8.668322021159954</v>
+        <v>12.22637984490174</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>23.10358776896395</v>
+        <v>17.55511618264391</v>
       </c>
       <c r="F25">
-        <v>36.96113127684684</v>
+        <v>30.6105045685811</v>
       </c>
       <c r="G25">
-        <v>20.41499118756521</v>
+        <v>18.95338582444931</v>
       </c>
       <c r="H25">
-        <v>12.03402151825649</v>
+        <v>7.216912063429244</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.331228435469709</v>
+        <v>4.318366553065615</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.85133231678472</v>
+        <v>18.18145307276316</v>
       </c>
       <c r="N25">
-        <v>16.55977655009806</v>
+        <v>11.41476406369572</v>
       </c>
       <c r="O25">
-        <v>17.21349061619719</v>
+        <v>11.68536287036541</v>
       </c>
     </row>
   </sheetData>
